--- a/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/coding_sri_novice.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/coding_sri_novice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\R script\sri coding\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{029F25BF-FE51-4704-96E8-70CB12EA9BA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{AB42D5F7-BC67-43A8-85F8-0CA1D81AD73E}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{029F25BF-FE51-4704-96E8-70CB12EA9BA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{31026C7B-CE18-404E-8E0B-80278F89B791}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10428" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="24">
   <si>
     <t>whispering</t>
   </si>
@@ -81,25 +81,22 @@
     <t xml:space="preserve">chatting </t>
   </si>
   <si>
-    <t>script</t>
+    <t>Group</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>Script</t>
   </si>
   <si>
-    <t>disturbing_factor</t>
+    <t>Event</t>
   </si>
   <si>
-    <t>event</t>
+    <t>Disturbing_Factor</t>
   </si>
   <si>
-    <t>safety_factor</t>
+    <t>Dispersion_School</t>
   </si>
   <si>
-    <t>dispersion_school</t>
-  </si>
-  <si>
-    <t>group</t>
+    <t>Confident_Factor</t>
   </si>
 </sst>
 </file>
@@ -498,36 +495,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11.5546875" style="1"/>
     <col min="3" max="3" width="23.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="E1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -840,12 +839,6 @@
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="F17" s="1">
         <v>9</v>
       </c>
@@ -920,14 +913,8 @@
       <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>19</v>
+      <c r="F21" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1220,12 +1207,6 @@
       <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="F36" s="1">
         <v>6</v>
       </c>
@@ -2479,12 +2460,6 @@
       </c>
       <c r="C99" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F99" s="1">
         <v>1</v>

--- a/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/coding_sri_novice.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/coding_sri_novice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\R script\sri coding\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{029F25BF-FE51-4704-96E8-70CB12EA9BA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{31026C7B-CE18-404E-8E0B-80278F89B791}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{029F25BF-FE51-4704-96E8-70CB12EA9BA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{C5596AB2-994C-46DD-A9CB-CBAAE0DCCC4B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10428" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
@@ -90,13 +90,13 @@
     <t>Event</t>
   </si>
   <si>
-    <t>Disturbing_Factor</t>
-  </si>
-  <si>
     <t>Dispersion_School</t>
   </si>
   <si>
     <t>Confident_Factor</t>
+  </si>
+  <si>
+    <t>Disruption_Factor</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,13 +520,13 @@
         <v>20</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">

--- a/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/coding_sri_novice.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/coding_sri_novice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\R script\sri coding\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{029F25BF-FE51-4704-96E8-70CB12EA9BA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{C5596AB2-994C-46DD-A9CB-CBAAE0DCCC4B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{BEC6D75F-56A4-41E5-B6F2-C33740C9160A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10428" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="24">
   <si>
     <t>whispering</t>
   </si>
@@ -493,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="H162" sqref="H162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2485,6 +2485,1068 @@
         <v>8</v>
       </c>
     </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>112</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="1">
+        <v>3</v>
+      </c>
+      <c r="E101" s="1">
+        <v>5</v>
+      </c>
+      <c r="F101" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>112</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="1">
+        <v>7</v>
+      </c>
+      <c r="E102" s="1">
+        <v>3</v>
+      </c>
+      <c r="F102" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>112</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" s="1">
+        <v>5</v>
+      </c>
+      <c r="E103" s="1">
+        <v>9</v>
+      </c>
+      <c r="F103" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>112</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="1">
+        <v>9</v>
+      </c>
+      <c r="E104" s="1">
+        <v>3</v>
+      </c>
+      <c r="F104" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>112</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105" s="1">
+        <v>9</v>
+      </c>
+      <c r="E105" s="1">
+        <v>4</v>
+      </c>
+      <c r="F105" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>112</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="1">
+        <v>4</v>
+      </c>
+      <c r="E106" s="1">
+        <v>6</v>
+      </c>
+      <c r="F106" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>112</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" s="1">
+        <v>7</v>
+      </c>
+      <c r="E107" s="1">
+        <v>6</v>
+      </c>
+      <c r="F107" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>112</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" s="1">
+        <v>3</v>
+      </c>
+      <c r="E108" s="1">
+        <v>8</v>
+      </c>
+      <c r="F108" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
+        <v>112</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="3">
+        <v>9</v>
+      </c>
+      <c r="E109" s="3">
+        <v>6</v>
+      </c>
+      <c r="F109" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>113</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>113</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="1">
+        <v>4</v>
+      </c>
+      <c r="E111" s="1">
+        <v>10</v>
+      </c>
+      <c r="F111" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>113</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="1">
+        <v>2</v>
+      </c>
+      <c r="E112" s="1">
+        <v>10</v>
+      </c>
+      <c r="F112" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>113</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="1">
+        <v>5</v>
+      </c>
+      <c r="E113" s="1">
+        <v>8</v>
+      </c>
+      <c r="F113" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="1">
+        <v>1</v>
+      </c>
+      <c r="E114" s="1">
+        <v>10</v>
+      </c>
+      <c r="F114" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" s="1">
+        <v>4</v>
+      </c>
+      <c r="E115" s="1">
+        <v>9</v>
+      </c>
+      <c r="F115" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>113</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" s="1">
+        <v>6</v>
+      </c>
+      <c r="E116" s="1">
+        <v>10</v>
+      </c>
+      <c r="F116" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>113</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D117" s="1">
+        <v>4</v>
+      </c>
+      <c r="E117" s="1">
+        <v>10</v>
+      </c>
+      <c r="F117" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <v>113</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="3">
+        <v>7</v>
+      </c>
+      <c r="E118" s="3">
+        <v>8</v>
+      </c>
+      <c r="F118" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>114</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="1">
+        <v>8</v>
+      </c>
+      <c r="E119" s="1">
+        <v>10</v>
+      </c>
+      <c r="F119" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>114</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" s="1">
+        <v>2</v>
+      </c>
+      <c r="E120" s="1">
+        <v>9</v>
+      </c>
+      <c r="F120" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>114</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="1">
+        <v>8</v>
+      </c>
+      <c r="E121" s="1">
+        <v>9</v>
+      </c>
+      <c r="F121" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>114</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" s="1">
+        <v>0</v>
+      </c>
+      <c r="E122" s="1">
+        <v>10</v>
+      </c>
+      <c r="F122" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>114</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="1">
+        <v>2</v>
+      </c>
+      <c r="E123" s="1">
+        <v>9</v>
+      </c>
+      <c r="F123" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>114</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D124" s="1">
+        <v>7</v>
+      </c>
+      <c r="E124" s="1">
+        <v>9</v>
+      </c>
+      <c r="F124" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>114</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" s="1">
+        <v>8</v>
+      </c>
+      <c r="E125" s="1">
+        <v>10</v>
+      </c>
+      <c r="F125" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>114</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1">
+        <v>9</v>
+      </c>
+      <c r="E126" s="1">
+        <v>6</v>
+      </c>
+      <c r="F126" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="3">
+        <v>114</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="3">
+        <v>9</v>
+      </c>
+      <c r="E127" s="3">
+        <v>9</v>
+      </c>
+      <c r="F127" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>115</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>115</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129" s="1">
+        <v>3</v>
+      </c>
+      <c r="E129" s="1">
+        <v>8</v>
+      </c>
+      <c r="F129" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>115</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="1">
+        <v>8</v>
+      </c>
+      <c r="E130" s="1">
+        <v>6</v>
+      </c>
+      <c r="F130" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>115</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131" s="1">
+        <v>7</v>
+      </c>
+      <c r="E131" s="1">
+        <v>6</v>
+      </c>
+      <c r="F131" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>115</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="1">
+        <v>5</v>
+      </c>
+      <c r="E132" s="1">
+        <v>8</v>
+      </c>
+      <c r="F132" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>115</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133" s="1">
+        <v>10</v>
+      </c>
+      <c r="E133" s="1">
+        <v>1</v>
+      </c>
+      <c r="F133" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>115</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" s="1">
+        <v>6</v>
+      </c>
+      <c r="E134" s="1">
+        <v>8</v>
+      </c>
+      <c r="F134" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>115</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" s="1">
+        <v>9</v>
+      </c>
+      <c r="E135" s="1">
+        <v>8</v>
+      </c>
+      <c r="F135" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="3">
+        <v>115</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="3">
+        <v>10</v>
+      </c>
+      <c r="E136" s="3">
+        <v>0</v>
+      </c>
+      <c r="F136" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>116</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" s="1">
+        <v>0</v>
+      </c>
+      <c r="E137" s="1">
+        <v>10</v>
+      </c>
+      <c r="F137" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>116</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" s="1">
+        <v>8</v>
+      </c>
+      <c r="E138" s="1">
+        <v>7</v>
+      </c>
+      <c r="F138" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>116</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139" s="1">
+        <v>5</v>
+      </c>
+      <c r="E139" s="1">
+        <v>6</v>
+      </c>
+      <c r="F139" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>116</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D140" s="1">
+        <v>10</v>
+      </c>
+      <c r="E140" s="1">
+        <v>3</v>
+      </c>
+      <c r="F140" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>116</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" s="1">
+        <v>8</v>
+      </c>
+      <c r="E141" s="1">
+        <v>7</v>
+      </c>
+      <c r="F141" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>116</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" s="1">
+        <v>0</v>
+      </c>
+      <c r="E142" s="1">
+        <v>10</v>
+      </c>
+      <c r="F142" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>116</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="1">
+        <v>9</v>
+      </c>
+      <c r="E143" s="1">
+        <v>10</v>
+      </c>
+      <c r="F143" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>116</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="1">
+        <v>8</v>
+      </c>
+      <c r="E144" s="1">
+        <v>10</v>
+      </c>
+      <c r="F144" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="3">
+        <v>116</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" s="3">
+        <v>10</v>
+      </c>
+      <c r="E145" s="3">
+        <v>8</v>
+      </c>
+      <c r="F145" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>117</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D146" s="1">
+        <v>3</v>
+      </c>
+      <c r="E146" s="1">
+        <v>4</v>
+      </c>
+      <c r="F146" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>117</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D147" s="1">
+        <v>7</v>
+      </c>
+      <c r="E147" s="1">
+        <v>3</v>
+      </c>
+      <c r="F147" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>117</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D148" s="1">
+        <v>1</v>
+      </c>
+      <c r="E148" s="1">
+        <v>5</v>
+      </c>
+      <c r="F148" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>117</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149" s="1">
+        <v>4</v>
+      </c>
+      <c r="E149" s="1">
+        <v>6</v>
+      </c>
+      <c r="F149" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>117</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" s="1">
+        <v>4</v>
+      </c>
+      <c r="E150" s="1">
+        <v>6</v>
+      </c>
+      <c r="F150" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>117</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" s="1">
+        <v>1</v>
+      </c>
+      <c r="E151" s="1">
+        <v>4</v>
+      </c>
+      <c r="F151" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>117</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="1">
+        <v>5</v>
+      </c>
+      <c r="E152" s="1">
+        <v>6</v>
+      </c>
+      <c r="F152" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>117</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="1">
+        <v>5</v>
+      </c>
+      <c r="E153" s="1">
+        <v>5</v>
+      </c>
+      <c r="F153" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="3">
+        <v>117</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" s="3">
+        <v>7</v>
+      </c>
+      <c r="E154" s="3">
+        <v>4</v>
+      </c>
+      <c r="F154" s="3">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/coding_sri_novice.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/coding_sri_novice.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\R script\sri coding\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{BEC6D75F-56A4-41E5-B6F2-C33740C9160A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="14_{BEC6D75F-56A4-41E5-B6F2-C33740C9160A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{7E314719-6581-4C6B-B3F9-9FA243ECF3AB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10428" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="24">
   <si>
     <t>whispering</t>
   </si>
@@ -493,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="H162" sqref="H162"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3547,6 +3547,186 @@
         <v>7</v>
       </c>
     </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>118</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D155" s="1">
+        <v>3</v>
+      </c>
+      <c r="E155" s="1">
+        <v>5</v>
+      </c>
+      <c r="F155" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>118</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156" s="1">
+        <v>0</v>
+      </c>
+      <c r="E156" s="1">
+        <v>10</v>
+      </c>
+      <c r="F156" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>118</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D157" s="1">
+        <v>5</v>
+      </c>
+      <c r="E157" s="1">
+        <v>7</v>
+      </c>
+      <c r="F157" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>118</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" s="1">
+        <v>6</v>
+      </c>
+      <c r="E158" s="1">
+        <v>6</v>
+      </c>
+      <c r="F158" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>118</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159" s="1">
+        <v>0</v>
+      </c>
+      <c r="E159" s="1">
+        <v>10</v>
+      </c>
+      <c r="F159" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>118</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="1">
+        <v>9</v>
+      </c>
+      <c r="E160" s="1">
+        <v>9</v>
+      </c>
+      <c r="F160" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>118</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" s="1">
+        <v>1</v>
+      </c>
+      <c r="E161" s="1">
+        <v>9</v>
+      </c>
+      <c r="F161" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>118</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" s="1">
+        <v>9</v>
+      </c>
+      <c r="E162" s="1">
+        <v>9</v>
+      </c>
+      <c r="F162" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="3">
+        <v>118</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" s="3">
+        <v>10</v>
+      </c>
+      <c r="E163" s="3">
+        <v>4</v>
+      </c>
+      <c r="F163" s="3">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/coding_sri_novice.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/coding_sri_novice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\R script\sri coding\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="14_{BEC6D75F-56A4-41E5-B6F2-C33740C9160A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{7E314719-6581-4C6B-B3F9-9FA243ECF3AB}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="14_{BEC6D75F-56A4-41E5-B6F2-C33740C9160A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{9D7E94A4-DD09-42CF-9CA0-7EF91B5FB618}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10428" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="24">
   <si>
     <t>whispering</t>
   </si>
@@ -493,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3727,6 +3727,186 @@
         <v>5</v>
       </c>
     </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>119</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D164" s="1">
+        <v>2</v>
+      </c>
+      <c r="E164" s="1">
+        <v>6</v>
+      </c>
+      <c r="F164" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>119</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="1">
+        <v>3</v>
+      </c>
+      <c r="E165" s="1">
+        <v>8</v>
+      </c>
+      <c r="F165" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>119</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D166" s="1">
+        <v>7</v>
+      </c>
+      <c r="E166" s="1">
+        <v>6</v>
+      </c>
+      <c r="F166" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>119</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="1">
+        <v>5</v>
+      </c>
+      <c r="E167" s="1">
+        <v>7</v>
+      </c>
+      <c r="F167" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>119</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D168" s="1">
+        <v>4</v>
+      </c>
+      <c r="E168" s="1">
+        <v>8</v>
+      </c>
+      <c r="F168" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>119</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" s="1">
+        <v>3</v>
+      </c>
+      <c r="E169" s="1">
+        <v>8</v>
+      </c>
+      <c r="F169" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>119</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D170" s="1">
+        <v>1</v>
+      </c>
+      <c r="E170" s="1">
+        <v>9</v>
+      </c>
+      <c r="F170" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>119</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171" s="1">
+        <v>3</v>
+      </c>
+      <c r="E171" s="1">
+        <v>9</v>
+      </c>
+      <c r="F171" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="3">
+        <v>119</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D172" s="3">
+        <v>7</v>
+      </c>
+      <c r="E172" s="3">
+        <v>8</v>
+      </c>
+      <c r="F172" s="3">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/coding_sri_novice.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/coding_sri_novice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\R script\sri coding\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="14_{BEC6D75F-56A4-41E5-B6F2-C33740C9160A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{9D7E94A4-DD09-42CF-9CA0-7EF91B5FB618}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="14_{BEC6D75F-56A4-41E5-B6F2-C33740C9160A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{FD945401-3B86-414C-8E87-67A47C843A0A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10428" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>head on table</t>
-  </si>
-  <si>
-    <t>locking at phone</t>
   </si>
   <si>
     <t>clicking pen</t>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Disruption_Factor</t>
+  </si>
+  <si>
+    <t>looking at phone</t>
   </si>
 </sst>
 </file>
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="D185" sqref="D185"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="H163" sqref="H163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,22 +511,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -617,7 +617,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -657,7 +657,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1">
         <v>9</v>
@@ -677,7 +677,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>102</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
@@ -734,7 +734,7 @@
         <v>102</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -754,7 +754,7 @@
         <v>102</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>102</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
@@ -794,7 +794,7 @@
         <v>102</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -814,10 +814,10 @@
         <v>102</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="6">
         <v>8</v>
@@ -834,10 +834,10 @@
         <v>102</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F17" s="1">
         <v>9</v>
@@ -848,10 +848,10 @@
         <v>102</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="1">
         <v>6</v>
@@ -868,10 +868,10 @@
         <v>102</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="3">
         <v>10</v>
@@ -888,7 +888,7 @@
         <v>103</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -908,7 +908,7 @@
         <v>103</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
@@ -922,7 +922,7 @@
         <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>1</v>
@@ -942,10 +942,10 @@
         <v>103</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="1">
         <v>5</v>
@@ -962,7 +962,7 @@
         <v>103</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>0</v>
@@ -982,10 +982,10 @@
         <v>103</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" s="1">
         <v>8</v>
@@ -1002,7 +1002,7 @@
         <v>103</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1022,10 +1022,10 @@
         <v>103</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -1042,7 +1042,7 @@
         <v>103</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>3</v>
@@ -1062,7 +1062,7 @@
         <v>104</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>6</v>
@@ -1082,10 +1082,10 @@
         <v>104</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="1">
         <v>5</v>
@@ -1102,7 +1102,7 @@
         <v>104</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
@@ -1122,10 +1122,10 @@
         <v>104</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" s="1">
         <v>4</v>
@@ -1142,7 +1142,7 @@
         <v>104</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>1</v>
@@ -1162,10 +1162,10 @@
         <v>104</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -1182,7 +1182,7 @@
         <v>104</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>104</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -1216,7 +1216,7 @@
         <v>104</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>3</v>
@@ -1236,10 +1236,10 @@
         <v>105</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" s="1">
         <v>8</v>
@@ -1256,10 +1256,10 @@
         <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" s="1">
         <v>10</v>
@@ -1276,7 +1276,7 @@
         <v>105</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>6</v>
@@ -1296,10 +1296,10 @@
         <v>105</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D41" s="1">
         <v>7</v>
@@ -1316,7 +1316,7 @@
         <v>105</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>5</v>
@@ -1336,7 +1336,7 @@
         <v>105</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -1356,7 +1356,7 @@
         <v>105</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>1</v>
@@ -1376,7 +1376,7 @@
         <v>105</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>105</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>3</v>
@@ -1416,10 +1416,10 @@
         <v>106</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47" s="1">
         <v>6</v>
@@ -1436,10 +1436,10 @@
         <v>106</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D48" s="1">
         <v>4</v>
@@ -1456,10 +1456,10 @@
         <v>106</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
@@ -1476,7 +1476,7 @@
         <v>106</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
@@ -1496,7 +1496,7 @@
         <v>106</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>6</v>
@@ -1516,7 +1516,7 @@
         <v>106</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>106</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>5</v>
@@ -1556,7 +1556,7 @@
         <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>1</v>
@@ -1576,7 +1576,7 @@
         <v>106</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>3</v>
@@ -1596,10 +1596,10 @@
         <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D56" s="1">
         <v>3</v>
@@ -1616,7 +1616,7 @@
         <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>4</v>
@@ -1636,10 +1636,10 @@
         <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D58" s="1">
         <v>9</v>
@@ -1656,7 +1656,7 @@
         <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>0</v>
@@ -1676,10 +1676,10 @@
         <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D60" s="1">
         <v>8</v>
@@ -1696,7 +1696,7 @@
         <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>1</v>
@@ -1716,7 +1716,7 @@
         <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>6</v>
@@ -1736,7 +1736,7 @@
         <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>5</v>
@@ -1756,7 +1756,7 @@
         <v>107</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>3</v>
@@ -1776,7 +1776,7 @@
         <v>108</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>4</v>
@@ -1796,7 +1796,7 @@
         <v>108</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>108</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D67" s="1">
         <v>5</v>
@@ -1836,7 +1836,7 @@
         <v>108</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>1</v>
@@ -1856,10 +1856,10 @@
         <v>108</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D69" s="1">
         <v>8</v>
@@ -1876,7 +1876,7 @@
         <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>5</v>
@@ -1896,10 +1896,10 @@
         <v>108</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D71" s="1">
         <v>8</v>
@@ -1916,7 +1916,7 @@
         <v>108</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>6</v>
@@ -1936,7 +1936,7 @@
         <v>108</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>3</v>
@@ -2039,7 +2039,7 @@
         <v>2</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D78" s="1">
         <v>8</v>
@@ -2079,7 +2079,7 @@
         <v>2</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D80" s="1">
         <v>9</v>
@@ -2099,7 +2099,7 @@
         <v>2</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D81" s="1">
         <v>7</v>
@@ -2136,7 +2136,7 @@
         <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>1</v>
@@ -2156,7 +2156,7 @@
         <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>5</v>
@@ -2176,7 +2176,7 @@
         <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>6</v>
@@ -2216,7 +2216,7 @@
         <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>4</v>
@@ -2236,10 +2236,10 @@
         <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D88" s="1">
         <v>8</v>
@@ -2256,10 +2256,10 @@
         <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D89" s="1">
         <v>5</v>
@@ -2276,10 +2276,10 @@
         <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D90" s="1">
         <v>8</v>
@@ -2296,10 +2296,10 @@
         <v>110</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D91" s="3">
         <v>9</v>
@@ -2316,7 +2316,7 @@
         <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>5</v>
@@ -2336,7 +2336,7 @@
         <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>6</v>
@@ -2356,7 +2356,7 @@
         <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>1</v>
@@ -2376,10 +2376,10 @@
         <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D95" s="1">
         <v>6</v>
@@ -2396,7 +2396,7 @@
         <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D97" s="1">
         <v>6</v>
@@ -2436,7 +2436,7 @@
         <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>4</v>
@@ -2456,10 +2456,10 @@
         <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F99" s="1">
         <v>1</v>
@@ -2470,7 +2470,7 @@
         <v>111</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>3</v>
@@ -2490,7 +2490,7 @@
         <v>112</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>6</v>
@@ -2510,10 +2510,10 @@
         <v>112</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D102" s="1">
         <v>7</v>
@@ -2530,7 +2530,7 @@
         <v>112</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>5</v>
@@ -2550,10 +2550,10 @@
         <v>112</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D104" s="1">
         <v>9</v>
@@ -2570,7 +2570,7 @@
         <v>112</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>1</v>
@@ -2590,10 +2590,10 @@
         <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D106" s="1">
         <v>4</v>
@@ -2610,7 +2610,7 @@
         <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>4</v>
@@ -2650,7 +2650,7 @@
         <v>112</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>3</v>
@@ -2670,10 +2670,10 @@
         <v>113</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -2681,10 +2681,10 @@
         <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D111" s="1">
         <v>4</v>
@@ -2701,7 +2701,7 @@
         <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>6</v>
@@ -2721,10 +2721,10 @@
         <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D113" s="1">
         <v>5</v>
@@ -2741,7 +2741,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>5</v>
@@ -2761,7 +2761,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>4</v>
@@ -2781,7 +2781,7 @@
         <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>1</v>
@@ -2801,7 +2801,7 @@
         <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>0</v>
@@ -2821,7 +2821,7 @@
         <v>113</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>3</v>
@@ -2841,10 +2841,10 @@
         <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D119" s="1">
         <v>8</v>
@@ -2861,10 +2861,10 @@
         <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D120" s="1">
         <v>2</v>
@@ -2881,10 +2881,10 @@
         <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D121" s="1">
         <v>8</v>
@@ -2901,7 +2901,7 @@
         <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>4</v>
@@ -2921,7 +2921,7 @@
         <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>6</v>
@@ -2941,7 +2941,7 @@
         <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>5</v>
@@ -2981,7 +2981,7 @@
         <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>1</v>
@@ -3001,7 +3001,7 @@
         <v>114</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>3</v>
@@ -3021,10 +3021,10 @@
         <v>115</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -3032,7 +3032,7 @@
         <v>115</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>4</v>
@@ -3052,10 +3052,10 @@
         <v>115</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D130" s="1">
         <v>8</v>
@@ -3072,7 +3072,7 @@
         <v>115</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>0</v>
@@ -3092,10 +3092,10 @@
         <v>115</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D132" s="1">
         <v>5</v>
@@ -3112,7 +3112,7 @@
         <v>115</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>1</v>
@@ -3132,7 +3132,7 @@
         <v>115</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>6</v>
@@ -3152,7 +3152,7 @@
         <v>115</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>5</v>
@@ -3172,7 +3172,7 @@
         <v>115</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>3</v>
@@ -3192,7 +3192,7 @@
         <v>116</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>4</v>
@@ -3212,7 +3212,7 @@
         <v>116</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>116</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D139" s="1">
         <v>5</v>
@@ -3252,7 +3252,7 @@
         <v>116</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>1</v>
@@ -3272,10 +3272,10 @@
         <v>116</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D141" s="1">
         <v>8</v>
@@ -3292,7 +3292,7 @@
         <v>116</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>5</v>
@@ -3312,10 +3312,10 @@
         <v>116</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D143" s="1">
         <v>9</v>
@@ -3332,7 +3332,7 @@
         <v>116</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>6</v>
@@ -3352,7 +3352,7 @@
         <v>116</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>3</v>
@@ -3455,7 +3455,7 @@
         <v>2</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D150" s="1">
         <v>4</v>
@@ -3495,7 +3495,7 @@
         <v>2</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D152" s="1">
         <v>5</v>
@@ -3515,7 +3515,7 @@
         <v>2</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D153" s="1">
         <v>5</v>
@@ -3552,7 +3552,7 @@
         <v>118</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>1</v>
@@ -3572,7 +3572,7 @@
         <v>118</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>5</v>
@@ -3592,7 +3592,7 @@
         <v>118</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>0</v>
@@ -3612,7 +3612,7 @@
         <v>118</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>6</v>
@@ -3632,7 +3632,7 @@
         <v>118</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>4</v>
@@ -3652,10 +3652,10 @@
         <v>118</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D160" s="1">
         <v>9</v>
@@ -3672,10 +3672,10 @@
         <v>118</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D161" s="1">
         <v>1</v>
@@ -3692,10 +3692,10 @@
         <v>118</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D162" s="1">
         <v>9</v>
@@ -3712,10 +3712,10 @@
         <v>118</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D163" s="3">
         <v>10</v>
@@ -3732,7 +3732,7 @@
         <v>119</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>5</v>
@@ -3752,7 +3752,7 @@
         <v>119</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>6</v>
@@ -3772,7 +3772,7 @@
         <v>119</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>1</v>
@@ -3792,10 +3792,10 @@
         <v>119</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D167" s="1">
         <v>5</v>
@@ -3812,7 +3812,7 @@
         <v>119</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>0</v>
@@ -3832,10 +3832,10 @@
         <v>119</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D169" s="1">
         <v>3</v>
@@ -3852,7 +3852,7 @@
         <v>119</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>4</v>
@@ -3872,10 +3872,10 @@
         <v>119</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D171" s="1">
         <v>3</v>
@@ -3892,7 +3892,7 @@
         <v>119</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>3</v>
